--- a/server/templates/report.xlsx
+++ b/server/templates/report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narudom/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +15,9 @@
   <definedNames>
     <definedName name="รหัสอะไหล่">[1]Sheet1!$B$2:$B$9712</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+    <ext uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">P.    </t>
   </si>
@@ -56,9 +51,6 @@
     <t>รหัสสินค้า</t>
   </si>
   <si>
-    <t>06410-KFL-850</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">เลขประจำตัวผู้เสียภาษีอากร </t>
     </r>
@@ -76,9 +68,6 @@
     <t>ชื่อสินค้า/วัตถุดิบ</t>
   </si>
   <si>
-    <t>ชุดยางกันกระชาก</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ชื่อสถานประกอบการ </t>
     </r>
@@ -94,9 +83,6 @@
   </si>
   <si>
     <t>ชนิด/ขนาด/รุ่น</t>
-  </si>
-  <si>
-    <t>HONDA</t>
   </si>
   <si>
     <t>สำนักงานใหญ่ 1049 หมู่ที่ 1 ต.ท่าสายลวด อ.แม่สอด จ.ตาก</t>
@@ -132,40 +118,73 @@
     <t>(ไม่รวม VAT)</t>
   </si>
   <si>
-    <t>ยอดยกมา</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>ยอดยกไป</t>
   </si>
   <si>
-    <t>รายงานสินค้าและวัตถุดิบ ปี 2017</t>
+    <t>${product.id}</t>
+  </si>
+  <si>
+    <t>${product.name}</t>
+  </si>
+  <si>
+    <t>${product.model}</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>รายงานสินค้าและวัตถุดิบ ปี ${year}</t>
+  </si>
+  <si>
+    <t>${table:transactions.date}</t>
+  </si>
+  <si>
+    <t>${table:transactions.receiptId}</t>
+  </si>
+  <si>
+    <t>${table:transactions.buy}</t>
+  </si>
+  <si>
+    <t>${table:transactions.sell}</t>
+  </si>
+  <si>
+    <t>${table:transactions.remaining}</t>
+  </si>
+  <si>
+    <t>${table:transactions.price}</t>
+  </si>
+  <si>
+    <t>${total.buy}</t>
+  </si>
+  <si>
+    <t>${total.sell}</t>
+  </si>
+  <si>
+    <t>${remaining}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d\ ดดด\ yy"/>
-    <numFmt numFmtId="165" formatCode="mm/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="d\ ดดด\ yy"/>
+    <numFmt numFmtId="189" formatCode="mm/d/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -237,21 +256,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -322,23 +335,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
@@ -352,7 +352,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,13 +364,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,7 +382,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +403,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,25 +421,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -447,19 +445,25 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ_แม่สอดพิมพ์ใบเสร็จอะไหล่-ทำใหม่เตรียมใช้" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,7 +477,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1 ม.ค.2558 ยกมา"/>
@@ -49110,7 +49114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -49145,7 +49149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -49322,33 +49326,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="13.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="B1" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="2"/>
@@ -49356,11 +49360,9 @@
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="36">
-        <v>11</v>
-      </c>
+      <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -49368,118 +49370,118 @@
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>3</v>
+      <c r="E2" s="36" t="s">
+        <v>19</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>6</v>
+      <c r="E3" s="37" t="s">
+        <v>20</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>9</v>
+      <c r="E4" s="37" t="s">
+        <v>21</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
-      <c r="G5" s="37">
-        <v>1</v>
-      </c>
+      <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="G7" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="7"/>
-      <c r="B8" s="27">
-        <v>42736</v>
+      <c r="B8" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
-      <c r="D8" s="29">
-        <v>2</v>
+      <c r="D8" s="39" t="s">
+        <v>26</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29">
-        <v>2</v>
+      <c r="E8" s="29" t="s">
+        <v>27</v>
       </c>
-      <c r="G8" s="30">
-        <v>500</v>
+      <c r="F8" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -49489,7 +49491,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -49499,7 +49501,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -49509,1322 +49511,1322 @@
       <c r="G11" s="31"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="C12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="34">
-        <v>5216</v>
+      <c r="D12" s="40" t="s">
+        <v>30</v>
       </c>
-      <c r="E12" s="34">
-        <v>5216</v>
+      <c r="E12" s="40" t="s">
+        <v>31</v>
       </c>
-      <c r="F12" s="35">
-        <v>0</v>
+      <c r="F12" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" s="7"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" s="7"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" s="7"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" s="7"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" s="7"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" s="7"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" s="7"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" s="7"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" s="7"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" s="7"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" s="7"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" s="7"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" s="7"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" s="7"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" s="7"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" s="7"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" s="7"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" s="7"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259" s="7"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" s="7"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263" s="7"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265" s="7"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266" s="7"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" s="7"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" s="7"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" s="7"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270" s="7"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" s="7"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272" s="7"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" s="7"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274" s="7"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275" s="7"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276" s="7"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277" s="7"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" s="7"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279" s="7"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280" s="7"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281" s="7"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282" s="7"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283" s="7"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284" s="7"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="A285" s="7"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286" s="7"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287" s="7"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288" s="7"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" s="7"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290" s="7"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291" s="7"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" s="7"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" s="7"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" s="7"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295" s="7"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296" s="7"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297" s="7"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" s="7"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" s="7"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" s="7"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301" s="7"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302" s="7"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303" s="7"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304" s="7"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305" s="7"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306" s="7"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307" s="7"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308" s="7"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309" s="7"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310" s="7"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311" s="7"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312" s="7"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313" s="7"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="A315" s="7"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="A316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="A317" s="7"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="A318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="A319" s="7"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="A320" s="7"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321" s="7"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322" s="7"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323" s="7"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324" s="7"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325" s="7"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326" s="7"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327" s="7"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328" s="7"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329" s="7"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="A330" s="7"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331" s="7"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="A332" s="7"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333" s="7"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334" s="7"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335" s="7"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336" s="7"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="A337" s="7"/>
       <c r="H337" s="7"/>
     </row>

--- a/server/templates/report.xlsx
+++ b/server/templates/report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narudom/Documents/code/stock/server/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,9 @@
   <definedNames>
     <definedName name="รหัสอะไหล่">[1]Sheet1!$B$2:$B$9712</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">P.    </t>
   </si>
@@ -121,15 +126,6 @@
     <t>ยอดยกไป</t>
   </si>
   <si>
-    <t>${product.id}</t>
-  </si>
-  <si>
-    <t>${product.name}</t>
-  </si>
-  <si>
-    <t>${product.model}</t>
-  </si>
-  <si>
     <t>รวม</t>
   </si>
   <si>
@@ -162,29 +158,41 @@
   <si>
     <t>${remaining}</t>
   </si>
+  <si>
+    <t>${index}</t>
+  </si>
+  <si>
+    <t>${productId}</t>
+  </si>
+  <si>
+    <t>${productName}</t>
+  </si>
+  <si>
+    <t>${productModel}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="188" formatCode="d\ ดดด\ yy"/>
-    <numFmt numFmtId="189" formatCode="mm/d/yyyy"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="d\ ดดด\ yy"/>
+    <numFmt numFmtId="166" formatCode="mm/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +346,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
@@ -352,7 +360,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,13 +372,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,7 +390,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,7 +411,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,20 +429,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,25 +453,25 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ_แม่สอดพิมพ์ใบเสร็จอะไหล่-ทำใหม่เตรียมใช้" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,7 +485,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1 ม.ค.2558 ยกมา"/>
@@ -49326,33 +49334,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
     <col min="4" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="2"/>
@@ -49360,9 +49368,11 @@
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -49370,13 +49380,13 @@
       <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>19</v>
+      <c r="E2" s="39" t="s">
+        <v>31</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -49385,13 +49395,13 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>20</v>
+      <c r="E3" s="40" t="s">
+        <v>32</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -49400,13 +49410,13 @@
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>21</v>
+      <c r="E4" s="40" t="s">
+        <v>33</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -49421,7 +49431,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -49436,7 +49446,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>12</v>
@@ -49459,29 +49469,29 @@
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="F8" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="G8" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -49491,7 +49501,7 @@
       <c r="G9" s="31"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -49501,7 +49511,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -49511,1322 +49521,1322 @@
       <c r="G11" s="31"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="C12" s="33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
-      <c r="D12" s="40" t="s">
-        <v>30</v>
+      <c r="D12" s="37" t="s">
+        <v>27</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>31</v>
+      <c r="E12" s="37" t="s">
+        <v>28</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>32</v>
+      <c r="F12" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
       <c r="H337" s="7"/>
     </row>
